--- a/biology/Botanique/Magnolianae/Magnolianae.xlsx
+++ b/biology/Botanique/Magnolianae/Magnolianae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la classification phylogénétique des Angiospermes les magnoliidées sont un clade important regroupant des plantes dicotylédones à une seule aperture.
-Le terme « magnoliidées » (« magnoliids » en anglais) étant un nom informel, l'Angiosperm Phylogeny Group a spécifié dans une publication complémentaire que ce groupe correspondait au super-ordre Magnolianae[1].
+Le terme « magnoliidées » (« magnoliids » en anglais) étant un nom informel, l'Angiosperm Phylogeny Group a spécifié dans une publication complémentaire que ce groupe correspondait au super-ordre Magnolianae.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des ordres selon la classification phylogénétique APG III (2009)[2][1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des ordres selon la classification phylogénétique APG III (2009) :
 Canellales Cronquist, 1957 ;
 Laurales Juss. ex Bercht. &amp; J.Presl, 1820 ;
 Magnoliales Juss. ex Bercht. &amp; J.Presl, 1820 ;
 Piperales Bercht. &amp; J.Presl, 1820.
-Notes: L'ordre Chloranthales Mart., 1835 est également inclus dans ce super-ordre selon ITIS[3].
+Notes: L'ordre Chloranthales Mart., 1835 est également inclus dans ce super-ordre selon ITIS.
 L'espèce de pipérales Lactoris fernandeziana a parfois été classée à part dans l'ordre Lactoridales Takht. ex Reveal, 1993.
 </t>
         </is>
@@ -549,9 +563,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Place au sein des Mésangiospermes d'après la classification phylogénétique APG III (2009)[2][4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Place au sein des Mésangiospermes d'après la classification phylogénétique APG III (2009) :
 Mesangiospermae
 Chloranthales
 clade des magnoliidées[α]
